--- a/examples/output/catalog_items.xlsx
+++ b/examples/output/catalog_items.xlsx
@@ -17,12 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="113">
   <si>
     <t>Generated by FastCatalog.ai on</t>
   </si>
   <si>
-    <t>2025-07-30 15:06:07 UTC</t>
+    <t>2025-07-30 16:39:39 UTC</t>
   </si>
   <si>
     <t>For the latest info, visit</t>
@@ -124,7 +124,7 @@
     <t>direct download</t>
   </si>
   <si>
-    <t>https://cloud.tsinghua.edu.cn/f/c9e50625743b40bfbe10/, https://drive.google.com/drive/folders/1yBUQ732mPu-KclJnuQELEhtKakdXFc3J</t>
+    <t>https://drive.google.com/drive/folders/1yBUQ732mPu-KclJnuQELEhtKakdXFc3J, https://cloud.tsinghua.edu.cn/f/c9e50625743b40bfbe10/</t>
   </si>
   <si>
     <t>Large-scale instruction-tuning dataset for tool use, enabling LLMs to learn to use real-world APIs via multi-step reasoning and tool execution.</t>
@@ -278,9 +278,6 @@
   </si>
   <si>
     <t>public (no authentication required)</t>
-  </si>
-  <si>
-    <t>https://apigen-pipeline.github.io/, https://huggingface.co/datasets/Salesforce/xlam-function-calling-60k</t>
   </si>
   <si>
     <t>High-quality, diverse, and verifiable synthetic dataset for training and evaluating function-calling agents/LLMs. Each entry is a query, a set of available tools (APIs/functions), and a set of verified function calls (answers) in JSON format.</t>
@@ -1358,16 +1355,16 @@
         <v>34</v>
       </c>
       <c r="I19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="K19" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="L19" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="115" customHeight="1">
@@ -1489,10 +1486,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>19</v>
@@ -1513,7 +1510,7 @@
         <v>41</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>19</v>
@@ -1527,31 +1524,31 @@
         <v>2</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="D24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>19</v>
@@ -1565,7 +1562,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>44</v>
@@ -1586,10 +1583,10 @@
         <v>19</v>
       </c>
       <c r="I25" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J25" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>19</v>
@@ -1603,16 +1600,16 @@
         <v>2</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D26" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>19</v>
@@ -1621,19 +1618,19 @@
         <v>33</v>
       </c>
       <c r="H26" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="I26" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="J26" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="K26" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="K26" s="5" t="s">
+      <c r="L26" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="70" customHeight="1">
@@ -1641,7 +1638,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>21</v>
@@ -1665,7 +1662,7 @@
         <v>19</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>19</v>
@@ -1679,7 +1676,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>21</v>
@@ -1703,7 +1700,7 @@
         <v>19</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>19</v>
@@ -1717,7 +1714,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>21</v>
@@ -1741,7 +1738,7 @@
         <v>19</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>19</v>

--- a/examples/output/catalog_items.xlsx
+++ b/examples/output/catalog_items.xlsx
@@ -22,7 +22,7 @@
     <t>Generated by FastCatalog.ai on</t>
   </si>
   <si>
-    <t>2025-07-30 16:39:39 UTC</t>
+    <t>2025-07-30 16:51:31 UTC</t>
   </si>
   <si>
     <t>For the latest info, visit</t>
